--- a/Daisy-xls/ResearchPages/research-breast-cancer.xlsx
+++ b/Daisy-xls/ResearchPages/research-breast-cancer.xlsx
@@ -30,39 +30,21 @@
     <t>FDA Grants Palbociclib Accelerated Approval for Advanced Breast Cancer[#5577]</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/news-events/nci-update/2015/palbociclib-breast-cancer</t>
-  </si>
-  <si>
     <t>Treatment Helps Preserve Fertility for Some Women with Breast Cancer[#8759]</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/news-events/nci-update/2015/fertility-breast-cancer</t>
-  </si>
-  <si>
     <t>Surgical Removal of Primary Tumor for Metastatic Breast Cancer</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/clinicaltrials/featured/trials/ECOG-E2108</t>
-  </si>
-  <si>
     <t>Trastuzumab for Women with HER2-Low Breast Cancer</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/clinicaltrials/featured/trials/NSABP-B-47</t>
-  </si>
-  <si>
     <t>Comparing Relaxation Programs for Breast Cancer Patients Receiving Radiotherapy</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/clinicaltrials/featured/trials/2009-0976</t>
-  </si>
-  <si>
     <t>Refining Post-Surgical Therapy for Women with Lymph Node-Positive Breast Cancer</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/clinicaltrials/featured/trials/SWOG-S1007</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -195,72 +177,6 @@
     <t>www.cancer.gov/newscenter/newsfromnci/2012/TCGAbreast</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/clinicaltrials/results/summary/2011/CLEOPATRA1211</t>
-  </si>
-  <si>
-    <t>http://www.cancer.gov/clinicaltrials/results/summary/2010/neoadjuvant-trastuzumab0310</t>
-  </si>
-  <si>
-    <t>http://www.cancer.gov/clinicaltrials/results/summary/2013/axillarydissection0413</t>
-  </si>
-  <si>
-    <t>http://www.cancer.gov/clinicaltrials/results/summary/2013/tamoxifen-10yrs0313</t>
-  </si>
-  <si>
-    <t>http://www.cancer.gov/clinicaltrials/results/summary/2012/EMILIA0612</t>
-  </si>
-  <si>
-    <t>http://www.cancer.gov/clinicaltrials/results/summary/2012/reduced-side-effects1012</t>
-  </si>
-  <si>
-    <t>http://www.cancer.gov/clinicaltrials/results/summary/2011/exemestane-ASCO0611</t>
-  </si>
-  <si>
-    <t>http://www.cancer.gov/clinicaltrials/results/summary/2012/exemestane0212</t>
-  </si>
-  <si>
-    <t>http://www.cancer.gov/clinicaltrials/results/summary/2011/BOLERO2_1211</t>
-  </si>
-  <si>
-    <t>http://www.cancer.gov/clinicaltrials/results/summary/2011/BIG1981211</t>
-  </si>
-  <si>
-    <t>http://www.cancer.gov/clinicaltrials/results/summary/2011/EBCTCG1211</t>
-  </si>
-  <si>
-    <t>http://www.cancer.gov/clinicaltrials/results/summary/2011/tamoxifen1111</t>
-  </si>
-  <si>
-    <t>http://www.cancer.gov/clinicaltrials/results/summary/2011/trastuzumab-nonanthracycline1111</t>
-  </si>
-  <si>
-    <t>http://www.cancer.gov/clinicaltrials/results/summary/2010/zoledronic-acid-breast1210</t>
-  </si>
-  <si>
-    <t>http://www.cancer.gov/clinicaltrials/results/summary/2008/zoledronic-acid0608</t>
-  </si>
-  <si>
-    <t>http://www.cancer.gov/clinicaltrials/results/summary/2011/prevention-benefit-tool0611</t>
-  </si>
-  <si>
-    <t>http://www.cancer.gov/clinicaltrials/results/summary/2011/eribulin0611</t>
-  </si>
-  <si>
-    <t>http://www.cancer.gov/clinicaltrials/results/summary/2011/tamoxifen0611</t>
-  </si>
-  <si>
-    <t>http://www.cancer.gov/clinicaltrials/results/summary/2011/WHI0511</t>
-  </si>
-  <si>
-    <t>http://www.cancer.gov/clinicaltrials/results/summary/2011/trastuzumab0511</t>
-  </si>
-  <si>
-    <t>http://www.cancer.gov/clinicaltrials/results/summary/2011/occult_mets0411</t>
-  </si>
-  <si>
-    <t>http://www.cancer.gov/clinicaltrials/results/summary/2011/ALND-SLNB0411</t>
-  </si>
-  <si>
     <t>New URL</t>
   </si>
   <si>
@@ -348,22 +264,106 @@
     <t>Blocking DNA Repair in Advanced BRCA-Mutated Cancer</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/clinicaltrials/featured/trials/NCI-14-C-0015</t>
-  </si>
-  <si>
     <t>/types/treatment/research/advanced-BRCA-mutated-cancer</t>
   </si>
   <si>
     <t>A Snapshot of Breast Cancer</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/researchandfunding/snapshots/breast</t>
-  </si>
-  <si>
     <t>Order</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/clinicaltrials/results/summary/2009/lymphedema0909</t>
+    <t>www.cancer.gov/researchandfunding/snapshots/breast</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/news-events/nci-update/2015/fertility-breast-cancer</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2011/CLEOPATRA1211</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/news-events/nci-update/2015/palbociclib-breast-cancer</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2010/neoadjuvant-trastuzumab0310</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/NCI-14-C-0015</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2013/axillarydissection0413</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2013/tamoxifen-10yrs0313</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/SWOG-S1007</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2012/EMILIA0612</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2012/reduced-side-effects1012</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/2009-0976</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/NSABP-B-47</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2011/exemestane-ASCO0611</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/ECOG-E2108</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2012/exemestane0212</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2011/BOLERO2_1211</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2011/BIG1981211</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2011/EBCTCG1211</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2011/tamoxifen1111</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2011/trastuzumab-nonanthracycline1111</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2010/zoledronic-acid-breast1210</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2008/zoledronic-acid0608</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2011/prevention-benefit-tool0611</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2011/eribulin0611</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2011/tamoxifen0611</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2011/WHI0511</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2011/trastuzumab0511</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2011/occult_mets0411</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2011/ALND-SLNB0411</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2009/lymphedema0909</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -455,12 +455,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -527,6 +542,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -833,24 +851,24 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="59" style="2" customWidth="1"/>
-    <col min="5" max="5" width="43.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65" style="2" customWidth="1"/>
+    <col min="4" max="4" width="69.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
@@ -862,10 +880,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1"/>
     </row>
@@ -873,12 +891,14 @@
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="23">
+        <v>484116</v>
+      </c>
       <c r="C2" s="9" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="11">
@@ -890,15 +910,17 @@
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="15">
+        <v>915248</v>
+      </c>
       <c r="C3" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="F3" s="13">
         <v>42075</v>
@@ -908,46 +930,52 @@
       <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="23">
+        <v>150014</v>
+      </c>
       <c r="C4" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="F4" s="13">
         <v>42061</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="15">
+        <v>906471</v>
+      </c>
       <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="13">
         <v>42046</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="23">
+        <v>869838</v>
+      </c>
       <c r="C6" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="13">
@@ -958,28 +986,32 @@
       <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="23">
+        <v>778109</v>
+      </c>
       <c r="C7" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="13">
         <v>41792</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="23">
+        <v>777515</v>
+      </c>
       <c r="C8" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="20">
@@ -990,12 +1022,14 @@
       <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="23">
+        <v>777000</v>
+      </c>
       <c r="C9" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="13">
@@ -1006,12 +1040,14 @@
       <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="23">
+        <v>748347</v>
+      </c>
       <c r="C10" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="13">
@@ -1022,15 +1058,17 @@
       <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="23">
+        <v>13377</v>
+      </c>
       <c r="C11" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="F11" s="13">
         <v>41736</v>
@@ -1040,28 +1078,32 @@
       <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="23">
+        <v>720365</v>
+      </c>
       <c r="C12" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="13">
         <v>41703</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="23">
+        <v>707517</v>
+      </c>
       <c r="C13" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="13">
@@ -1072,51 +1114,57 @@
       <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="23">
+        <v>699643</v>
+      </c>
       <c r="C14" s="9" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="F14" s="21">
         <v>41670</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="23">
+        <v>559046</v>
+      </c>
       <c r="C15" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F15" s="13">
         <v>41390</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="23">
+        <v>538205</v>
+      </c>
       <c r="C16" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="F16" s="13">
         <v>41353</v>
@@ -1126,15 +1174,17 @@
       <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="12"/>
+      <c r="B17" s="23">
+        <v>505751</v>
+      </c>
       <c r="C17" s="9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="F17" s="13">
         <v>41310</v>
@@ -1144,31 +1194,35 @@
       <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="12"/>
+      <c r="B18" s="23">
+        <v>505605</v>
+      </c>
       <c r="C18" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="13">
         <v>41310</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="23">
+        <v>317031</v>
+      </c>
       <c r="C19" s="9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D19" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>91</v>
       </c>
       <c r="F19" s="13">
         <v>41242</v>
@@ -1178,15 +1232,17 @@
       <c r="A20" s="12">
         <v>19</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="23">
+        <v>454332</v>
+      </c>
       <c r="C20" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D20" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>92</v>
       </c>
       <c r="F20" s="13">
         <v>41207</v>
@@ -1196,15 +1252,17 @@
       <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="23">
+        <v>449472</v>
+      </c>
       <c r="C21" s="9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="F21" s="13">
         <v>41198</v>
@@ -1214,28 +1272,32 @@
       <c r="A22" s="12">
         <v>21</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="23">
+        <v>430531</v>
+      </c>
       <c r="C22" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="13">
         <v>41176</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>22</v>
       </c>
-      <c r="B23" s="12"/>
+      <c r="B23" s="23">
+        <v>404280</v>
+      </c>
       <c r="C23" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="13">
@@ -1246,33 +1308,37 @@
       <c r="A24" s="12">
         <v>23</v>
       </c>
-      <c r="B24" s="12"/>
+      <c r="B24" s="23">
+        <v>323452</v>
+      </c>
       <c r="C24" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F24" s="13">
         <v>41086</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>24</v>
       </c>
-      <c r="B25" s="12"/>
+      <c r="B25" s="23">
+        <v>94637</v>
+      </c>
       <c r="C25" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="F25" s="13">
         <v>40975</v>
@@ -1282,15 +1348,17 @@
       <c r="A26" s="12">
         <v>25</v>
       </c>
-      <c r="B26" s="12"/>
+      <c r="B26" s="23">
+        <v>213903</v>
+      </c>
       <c r="C26" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F26" s="13">
         <v>40960</v>
@@ -1300,87 +1368,97 @@
       <c r="A27" s="12">
         <v>26</v>
       </c>
-      <c r="B27" s="12"/>
+      <c r="B27" s="23">
+        <v>178191</v>
+      </c>
       <c r="C27" s="9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D27" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>94</v>
       </c>
       <c r="F27" s="13">
         <v>40940</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>27</v>
       </c>
-      <c r="B28" s="12"/>
+      <c r="B28" s="23">
+        <v>150013</v>
+      </c>
       <c r="C28" s="9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D28" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>67</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>95</v>
       </c>
       <c r="F28" s="13">
         <v>40898</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>28</v>
       </c>
-      <c r="B29" s="12"/>
+      <c r="B29" s="23">
+        <v>138990</v>
+      </c>
       <c r="C29" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="F29" s="13">
         <v>40879</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>29</v>
       </c>
-      <c r="B30" s="12"/>
+      <c r="B30" s="23">
+        <v>139068</v>
+      </c>
       <c r="C30" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="F30" s="13">
         <v>40879</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>30</v>
       </c>
-      <c r="B31" s="12"/>
+      <c r="B31" s="23">
+        <v>136764</v>
+      </c>
       <c r="C31" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="F31" s="13">
         <v>40870</v>
@@ -1390,33 +1468,37 @@
       <c r="A32" s="12">
         <v>31</v>
       </c>
-      <c r="B32" s="12"/>
+      <c r="B32" s="23">
+        <v>126781</v>
+      </c>
       <c r="C32" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="F32" s="13">
         <v>40850</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>32</v>
       </c>
-      <c r="B33" s="12"/>
+      <c r="B33" s="23">
+        <v>15528</v>
+      </c>
       <c r="C33" s="9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="F33" s="13">
         <v>40836</v>
@@ -1426,69 +1508,77 @@
       <c r="A34" s="12">
         <v>33</v>
       </c>
-      <c r="B34" s="12"/>
+      <c r="B34" s="23">
+        <v>12956</v>
+      </c>
       <c r="C34" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F34" s="13">
         <v>40792</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>34</v>
       </c>
-      <c r="B35" s="12"/>
+      <c r="B35" s="23">
+        <v>84773</v>
+      </c>
       <c r="C35" s="9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="F35" s="13">
         <v>40708</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>35</v>
       </c>
-      <c r="B36" s="12"/>
+      <c r="B36" s="23">
+        <v>84176</v>
+      </c>
       <c r="C36" s="9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="F36" s="13">
         <v>40704</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>36</v>
       </c>
-      <c r="B37" s="12"/>
+      <c r="B37" s="23">
+        <v>84042</v>
+      </c>
       <c r="C37" s="9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="F37" s="13">
         <v>40697</v>
@@ -1498,81 +1588,89 @@
       <c r="A38" s="12">
         <v>37</v>
       </c>
-      <c r="B38" s="12"/>
+      <c r="B38" s="23">
+        <v>79721</v>
+      </c>
       <c r="C38" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="F38" s="13">
         <v>40683</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>38</v>
       </c>
-      <c r="B39" s="12"/>
+      <c r="B39" s="23">
+        <v>78414</v>
+      </c>
       <c r="C39" s="9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="F39" s="13">
         <v>40669</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>39</v>
       </c>
-      <c r="B40" s="12"/>
+      <c r="B40" s="23">
+        <v>76380</v>
+      </c>
       <c r="C40" s="9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="F40" s="13">
         <v>40659</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>40</v>
       </c>
-      <c r="B41" s="12"/>
+      <c r="B41" s="23">
+        <v>70033</v>
+      </c>
       <c r="C41" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F41" s="13">
         <v>40633</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>41</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>115</v>
@@ -1587,12 +1685,12 @@
     <sortCondition descending="1" ref="F1"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D26" r:id="rId3"/>
-    <hyperlink ref="D24" r:id="rId4"/>
-    <hyperlink ref="D21" r:id="rId5"/>
-    <hyperlink ref="D17" r:id="rId6"/>
+    <hyperlink ref="D5" r:id="rId1" display="http://www.cancer.gov/news-events/nci-update/2015/palbociclib-breast-cancer"/>
+    <hyperlink ref="D3" r:id="rId2" display="http://www.cancer.gov/news-events/nci-update/2015/fertility-breast-cancer"/>
+    <hyperlink ref="D26" r:id="rId3" display="http://www.cancer.gov/clinicaltrials/featured/trials/ECOG-E2108"/>
+    <hyperlink ref="D24" r:id="rId4" display="http://www.cancer.gov/clinicaltrials/featured/trials/NSABP-B-47"/>
+    <hyperlink ref="D21" r:id="rId5" display="http://www.cancer.gov/clinicaltrials/featured/trials/2009-0976"/>
+    <hyperlink ref="D17" r:id="rId6" display="http://www.cancer.gov/clinicaltrials/featured/trials/SWOG-S1007"/>
     <hyperlink ref="D18" r:id="rId7"/>
     <hyperlink ref="D12" r:id="rId8"/>
     <hyperlink ref="D13" r:id="rId9"/>
@@ -1603,7 +1701,7 @@
     <hyperlink ref="D9" r:id="rId14"/>
     <hyperlink ref="D10" r:id="rId15"/>
     <hyperlink ref="D22" r:id="rId16"/>
-    <hyperlink ref="D14" r:id="rId17"/>
+    <hyperlink ref="D14" r:id="rId17" display="http://www.cancer.gov/clinicaltrials/featured/trials/NCI-14-C-0015"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId18"/>

--- a/Daisy-xls/ResearchPages/research-breast-cancer.xlsx
+++ b/Daisy-xls/ResearchPages/research-breast-cancer.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>Title</t>
   </si>
@@ -187,9 +187,6 @@
   </si>
   <si>
     <t>/types/breast/research/surgery-metastitic</t>
-  </si>
-  <si>
-    <t>/types/breast/research/fertility-preserved</t>
   </si>
   <si>
     <t>/types/breast/research/two-drugs-one-target</t>
@@ -851,8 +848,8 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,7 +865,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
@@ -895,10 +892,10 @@
         <v>484116</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="11">
@@ -917,11 +914,9 @@
         <v>4</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>57</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E3" s="15"/>
       <c r="F3" s="13">
         <v>42075</v>
       </c>
@@ -937,10 +932,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" s="13">
         <v>42061</v>
@@ -957,7 +952,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="13">
@@ -1065,10 +1060,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" s="13">
         <v>41736</v>
@@ -1118,13 +1113,13 @@
         <v>699643</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="F14" s="21">
         <v>41670</v>
@@ -1141,10 +1136,10 @@
         <v>29</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="13">
         <v>41390</v>
@@ -1161,10 +1156,10 @@
         <v>28</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16" s="13">
         <v>41353</v>
@@ -1181,10 +1176,10 @@
         <v>8</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17" s="13">
         <v>41310</v>
@@ -1219,10 +1214,10 @@
         <v>27</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F19" s="13">
         <v>41242</v>
@@ -1239,10 +1234,10 @@
         <v>26</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20" s="13">
         <v>41207</v>
@@ -1259,10 +1254,10 @@
         <v>7</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F21" s="13">
         <v>41198</v>
@@ -1315,7 +1310,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>54</v>
@@ -1335,7 +1330,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>55</v>
@@ -1355,7 +1350,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>56</v>
@@ -1375,10 +1370,10 @@
         <v>24</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F27" s="13">
         <v>40940</v>
@@ -1395,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F28" s="13">
         <v>40898</v>
@@ -1415,10 +1410,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F29" s="13">
         <v>40879</v>
@@ -1435,10 +1430,10 @@
         <v>22</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F30" s="13">
         <v>40879</v>
@@ -1455,10 +1450,10 @@
         <v>32</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F31" s="13">
         <v>40870</v>
@@ -1475,10 +1470,10 @@
         <v>20</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F32" s="13">
         <v>40850</v>
@@ -1495,10 +1490,10 @@
         <v>19</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F33" s="13">
         <v>40836</v>
@@ -1515,10 +1510,10 @@
         <v>18</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F34" s="13">
         <v>40792</v>
@@ -1535,10 +1530,10 @@
         <v>17</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F35" s="13">
         <v>40708</v>
@@ -1555,10 +1550,10 @@
         <v>16</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F36" s="13">
         <v>40704</v>
@@ -1575,10 +1570,10 @@
         <v>15</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F37" s="13">
         <v>40697</v>
@@ -1595,10 +1590,10 @@
         <v>31</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F38" s="13">
         <v>40683</v>
@@ -1615,10 +1610,10 @@
         <v>14</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F39" s="13">
         <v>40669</v>
@@ -1635,10 +1630,10 @@
         <v>13</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F40" s="13">
         <v>40659</v>
@@ -1655,10 +1650,10 @@
         <v>12</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F41" s="13">
         <v>40633</v>
@@ -1673,7 +1668,7 @@
         <v>11</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="13">
